--- a/demog180-syllabus/demog180.xlsx
+++ b/demog180-syllabus/demog180.xlsx
@@ -422,7 +422,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Mini Project 01: Personal network data</t>
+          <t>[Mini Project 01: Personal network data](https://docs.google.com/document/d/1KO9E3WqhSGK_Q0Hqn0NuRdk_L3GYtyI3Xu4O76d7hIQ/edit?tab=t.0)</t>
         </is>
       </c>
     </row>

--- a/demog180-syllabus/demog180.xlsx
+++ b/demog180-syllabus/demog180.xlsx
@@ -755,9 +755,14 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>[Cooperation](#sec:cooperation)</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>TBA - possible guest lecture</t>
+          <t>Cooperation and networks</t>
         </is>
       </c>
     </row>
@@ -776,14 +781,9 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>[Cooperation](#sec:cooperation)</t>
-        </is>
-      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Cooperation and networks</t>
+          <t>TBA - possible guest lecture</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">

--- a/demog180-syllabus/demog180.xlsx
+++ b/demog180-syllabus/demog180.xlsx
@@ -434,7 +434,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[Lab 1: Analyzing personal network data; review of bootstrap](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;urlpath=tree%2Fdemog180-fa2024%2Flabs%2Flab01%2Flab01_personal_network_survey.ipynb&amp;branch=main)</t>
+          <t>[Lab 1: Analyzing personal network data; review of bootstrap](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2025&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2025%2Flab%2Flab01%2Flab01_personal_network_survey.ipynb)</t>
         </is>
       </c>
     </row>

--- a/demog180-syllabus/demog180.xlsx
+++ b/demog180-syllabus/demog180.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Triadic closure</t>
+          <t>Overview of graph theory; triadic closure</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -459,12 +459,12 @@
     <row r="5">
       <c r="D5" t="inlineStr">
         <is>
-          <t>Strength of Weak Ties, Social Capital, Structural Holes</t>
+          <t>Structural balance; positive and negative networks</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[Strength of weak ties demo](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;branch=main&amp;urlpath=lab%2Ftree%2Fdemog180-fa2024%2Flecture%2F20240910_sowt%2Fsowt_wiki_talk.ipynb)</t>
+          <t>[Structural balance demo](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2024%2Flecture%2F20240919_structural_balance%2Fstructural_balance_in_the_small_slashdot_network.ipynb)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -483,12 +483,12 @@
     <row r="7">
       <c r="D7" t="inlineStr">
         <is>
-          <t>Networks in context; homophily; affiliation networks; and foci</t>
+          <t>Strength of Weak Ties, Social Capital, Structural Holes</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[Two mode network demo](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2024%2Flecture%2F20240917_two_mode_networks%2Ftwo_mode_networks.ipynb)</t>
+          <t>[Strength of weak ties demo](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;branch=main&amp;urlpath=lab%2Ftree%2Fdemog180-fa2024%2Flecture%2F20240910_sowt%2Fsowt_wiki_talk.ipynb)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -505,16 +505,21 @@
     <row r="8">
       <c r="D8" t="inlineStr">
         <is>
-          <t>Positive and negative networks</t>
+          <t>Networks in context; homophily; affiliation networks; and foci</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[Structural balance demo](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2024%2Flecture%2F20240919_structural_balance%2Fstructural_balance_in_the_small_slashdot_network.ipynb)</t>
+          <t>[Two mode network demo](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2024%2Flecture%2F20240917_two_mode_networks%2Ftwo_mode_networks.ipynb)</t>
         </is>
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>[Small worlds](#sec:smallworlds)</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>Intro to mathematical network models; the Erdos-Renyi model and its predictions</t>
@@ -532,11 +537,6 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>[Small worlds](#sec:smallworlds)</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>Small worlds</t>

--- a/demog180-syllabus/demog180.xlsx
+++ b/demog180-syllabus/demog180.xlsx
@@ -451,8 +451,8 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[Clustering coefficient](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;branch=main&amp;urlpath=lab%2Ftree%2Fdemog180-fa2024%2Flecture%2F20240905_clusteringcoef%2Fclustering_coefficient.ipynb); 
- [Triadic closure in an email network](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;branch=main&amp;urlpath=lab%2Ftree%2Fdemog180-fa2024%2Flecture%2F20240905_triadic_closure%2Femail-eu-core.ipynb)</t>
+          <t>[Clustering coefficient](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2025&amp;branch=main&amp;urlpath=lab%2Ftree%2Fdemog180-fa2025%2Flecture%2F20250904_clusteringcoef%2Fclustering_coefficient.ipynb); 
+ [Triadic closure in an email network](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2025&amp;branch=main&amp;urlpath=lab%2Ftree%2Fdemog180-fa2025%2Flecture%2F20250904_triadic_closure%2Femail-eu-core.ipynb)</t>
         </is>
       </c>
     </row>
@@ -476,19 +476,24 @@
     <row r="6">
       <c r="D6" t="inlineStr">
         <is>
-          <t>Network centrality / the Friendship Paradox</t>
+          <t>Strength of Weak Ties, Social Capital, Structural Holes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>[Strength of weak ties demo](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;branch=main&amp;urlpath=lab%2Ftree%2Fdemog180-fa2024%2Flecture%2F20240910_sowt%2Fsowt_wiki_talk.ipynb)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="D7" t="inlineStr">
         <is>
-          <t>Strength of Weak Ties, Social Capital, Structural Holes</t>
+          <t>Networks in context; homophily; affiliation networks; and foci</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[Strength of weak ties demo](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;branch=main&amp;urlpath=lab%2Ftree%2Fdemog180-fa2024%2Flecture%2F20240910_sowt%2Fsowt_wiki_talk.ipynb)</t>
+          <t>[Two mode network demo](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2024%2Flecture%2F20240917_two_mode_networks%2Ftwo_mode_networks.ipynb)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -505,12 +510,7 @@
     <row r="8">
       <c r="D8" t="inlineStr">
         <is>
-          <t>Networks in context; homophily; affiliation networks; and foci</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>[Two mode network demo](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2024%2Flecture%2F20240917_two_mode_networks%2Ftwo_mode_networks.ipynb)</t>
+          <t>Network centrality / the Friendship Paradox</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[Lab 4 - Exploring the ER model](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2024%2Flabs%2Flab04%2Flab4_clustering_coefficient_er.ipynb)</t>
+          <t>[Lab 4 - Two-mode networks](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2024%2Flabs%2Flab05%2Flab05_two_mode_networks.ipynb)</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[Lab 5 - Two-mode networks](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2024%2Flabs%2Flab05%2Flab05_two_mode_networks.ipynb)</t>
+          <t>[Lab 5- Exploring the ER model](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2024%2Flabs%2Flab04%2Flab4_clustering_coefficient_er.ipynb)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">

--- a/demog180-syllabus/demog180.xlsx
+++ b/demog180-syllabus/demog180.xlsx
@@ -464,7 +464,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[Structural balance demo](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2024%2Flecture%2F20240919_structural_balance%2Fstructural_balance_in_the_small_slashdot_network.ipynb)</t>
+          <t>[Structural balance demo](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2025&amp;branch=main&amp;urlpath=lab%2Ftree%2Fdemog180-fa2025%2Flecture%2F20250908_structural_balance%2Fstructural_balance_in_the_small_slashdot_network.ipynb)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -501,16 +501,16 @@
           <t>[Lab 3: Enriching network data and testing a hypothesis about homophily](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2024%2Flabs%2Flab03%2Flab03_homophily.ipynb)</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Mini Project 02: Complete network data</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="D8" t="inlineStr">
         <is>
           <t>Network centrality / the Friendship Paradox</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Mini Project 02: Complete network data</t>
         </is>
       </c>
     </row>

--- a/demog180-syllabus/demog180.xlsx
+++ b/demog180-syllabus/demog180.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[Lab 2: Getting started with complete network data](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2024%2Flabs%2Flab02%2Flab2_complete_networks.ipynb)</t>
+          <t>[Lab 2: Getting started with complete network data](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2025&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2025%2Flab%2Flab02%2Flab2_complete_networks.ipynb)</t>
         </is>
       </c>
     </row>

--- a/demog180-syllabus/demog180.xlsx
+++ b/demog180-syllabus/demog180.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[Strength of weak ties demo](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;branch=main&amp;urlpath=lab%2Ftree%2Fdemog180-fa2024%2Flecture%2F20240910_sowt%2Fsowt_wiki_talk.ipynb)</t>
+          <t>[Strength of weak ties demo](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2025&amp;branch=main&amp;urlpath=lab%2Ftree%2Fdemog180-fa2025%2Flecture%2F20250911_sowt%2Fsowt_wiki_talk.ipynb)</t>
         </is>
       </c>
     </row>

--- a/demog180-syllabus/demog180.xlsx
+++ b/demog180-syllabus/demog180.xlsx
@@ -491,14 +491,9 @@
           <t>Networks in context; homophily; affiliation networks; and foci</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>[Two mode network demo](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2024%2Flecture%2F20240917_two_mode_networks%2Ftwo_mode_networks.ipynb)</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[Lab 3: Enriching network data and testing a hypothesis about homophily](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2024%2Flabs%2Flab03%2Flab03_homophily.ipynb)</t>
+          <t>[Lab 3: Enriching network data and testing a hypothesis about homophily](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2025&amp;branch=main&amp;urlpath=lab%2Ftree%2Fdemog180-fa2025%2Flab%2Flab03%2Flab03_homophily.ipynb)</t>
         </is>
       </c>
     </row>

--- a/demog180-syllabus/demog180.xlsx
+++ b/demog180-syllabus/demog180.xlsx
@@ -505,7 +505,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Mini Project 02: Complete network data</t>
+          <t>[Mini Project 02: Complete network data](https://docs.google.com/document/d/1VbIGTMmBHFsBJMdo4z_Z_QGosKkXUa6zVq5EzI76Gjc/edit?usp=sharing)</t>
         </is>
       </c>
     </row>

--- a/demog180-syllabus/demog180.xlsx
+++ b/demog180-syllabus/demog180.xlsx
@@ -522,7 +522,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[ER random networks demo](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2024%2Flecture%2F20240923_er_random_networks%2Fer_random_networks.ipynb)</t>
+          <t>[ER random networks demo](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2025&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2025%2Flecture%2F20250922_er_random_networks%2Fer_random_networks.ipynb)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">

--- a/demog180-syllabus/demog180.xlsx
+++ b/demog180-syllabus/demog180.xlsx
@@ -527,7 +527,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[Lab 4 - Two-mode networks](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2024%2Flabs%2Flab05%2Flab05_two_mode_networks.ipynb)</t>
+          <t>[Lab 4 - ER Model](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2025&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2025%2Flab%2Flab04%2Flab4_clustering_coefficient_er.ipynb)</t>
         </is>
       </c>
     </row>
@@ -549,11 +549,6 @@
           <t>[Lab 5- Exploring the ER model](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2024%2Flabs%2Flab04%2Flab4_clustering_coefficient_er.ipynb)</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>? Problem Set 01</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="D12" t="inlineStr">
@@ -566,6 +561,11 @@
           <t>[netlogo BA model](https://www.netlogoweb.org/launch#https://www.netlogoweb.org/assets/modelslib/Sample%20Models/Networks/Preferential%20Attachment.nlogo)</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>? Problem Set 01</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Empirical studies of network structure</t>
+          <t>More models: configuration model and stochastic block model</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -588,7 +588,7 @@
     <row r="14">
       <c r="D14" t="inlineStr">
         <is>
-          <t>Midterm review</t>
+          <t>Community detection</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -600,26 +600,26 @@
     <row r="15">
       <c r="D15" t="inlineStr">
         <is>
-          <t>Midterm</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>[Lab 6: Community detection](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2024%2Flabs%2Flab06%2Flab06_community_detection.ipynb)</t>
+          <t>Midterm review</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="D16" t="inlineStr">
         <is>
-          <t>More models: configuration model and stochastic block model</t>
+          <t>Midterm</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="D17" t="inlineStr">
         <is>
-          <t>Community detection</t>
+          <t>Empirical studies of network structure</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>[Lab 6: Community detection](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2024%2Flabs%2Flab06%2Flab06_community_detection.ipynb)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">

--- a/demog180-syllabus/demog180.xlsx
+++ b/demog180-syllabus/demog180.xlsx
@@ -546,7 +546,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[Lab 5- Exploring the ER model](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2024%2Flabs%2Flab04%2Flab4_clustering_coefficient_er.ipynb)</t>
+          <t>[Lab 5 - Exploring the ER Model](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2025&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2025%2Flab%2Flab05%2Flab05_two_mode_networks.ipynb)</t>
         </is>
       </c>
     </row>

--- a/demog180-syllabus/demog180.xlsx
+++ b/demog180-syllabus/demog180.xlsx
@@ -546,7 +546,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[Lab 5 - Exploring the ER Model](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2025&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2025%2Flab%2Flab05%2Flab05_two_mode_networks.ipynb)</t>
+          <t>[Lab 5 - Two-mode networks](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2025&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2025%2Flab%2Flab05%2Flab05_two_mode_networks.ipynb)</t>
         </is>
       </c>
     </row>

--- a/demog180-syllabus/demog180.xlsx
+++ b/demog180-syllabus/demog180.xlsx
@@ -580,7 +580,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[configuration model](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2024%2Flecture%2F20241015_advanced_models%2Fconfiguration_model.ipynb); [SBM](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2024%2Flecture%2F20241015_advanced_models%2Fstochastic_block_model.ipynb
+          <t>[configuration model](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2025&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2025%2Flecture%2F20251007_advanced_models%2Fconfiguration_model.ipynb); [SBM](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2025&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2025%2Flecture%2F20251007_advanced_models%2Fstochastic_block_model.ipynb
 )</t>
         </is>
       </c>
@@ -593,7 +593,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[community detection](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2024%2Flecture%2F20241017_community_detection%2Fcommunity_detection.ipynb)</t>
+          <t>[community detection](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2025&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2025%2Flecture%2F20251009_community_detection%2Fcommunity_detection.ipynb)</t>
         </is>
       </c>
     </row>

--- a/demog180-syllabus/demog180.xlsx
+++ b/demog180-syllabus/demog180.xlsx
@@ -563,7 +563,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>? Problem Set 01</t>
+          <t>[Problem Set 01](https://docs.google.com/document/d/1w8m1vIhnvQqy5kB_w0qbx6PpYBc7fLz9j5pYIjokDBw/edit?tab=t.0)</t>
         </is>
       </c>
     </row>
@@ -719,11 +719,6 @@
           <t>Threshold models and complex contagion</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Mini-project support</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -779,11 +774,6 @@
       <c r="D29" t="inlineStr">
         <is>
           <t>TBA - possible guest lecture</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Problem set + mini-project support</t>
         </is>
       </c>
     </row>

--- a/demog180-syllabus/demog180.xlsx
+++ b/demog180-syllabus/demog180.xlsx
@@ -614,145 +614,140 @@
     <row r="17">
       <c r="D17" t="inlineStr">
         <is>
+          <t>Sampling and ARD; Recap of config model/SBM/community detection</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>[Lab 6: Community detection](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2024%2Flabs%2Flab06%2Flab06_community_detection.ipynb)</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>? Mini Project 03</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="D18" t="inlineStr">
+        <is>
           <t>Empirical studies of network structure</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[Lab 6: Community detection](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2024%2Flabs%2Flab06%2Flab06_community_detection.ipynb)</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>? Mini Project 03</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>[Dynamics: Simple contagion](#sec:simplecontagion)</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Diseases and simple contagion in general; SIR model</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>[SIR demo](https://shiny.demog.berkeley.edu/dennis/model-SIR/)</t>
         </is>
       </c>
-    </row>
-    <row r="19">
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>[Lab 7: Simple contagion](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2024%2Flabs%2Flab07%2Flab07_simple_contagion.ipynb)</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>? Problem Set 02</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="D20" t="inlineStr">
         <is>
           <t>SIR model on networks; centrality, influence and network disease models</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>[Network SIR demo](https://shiny.demog.berkeley.edu/dennis/shiny-SimNetwork/); [Threshold infectiousness demo](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2024%2Flecture%2F20241029_sir_threshold_infectiousness%2Fsir_threshold_infectiousness.ipynb)</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>[Lab 7: Simple contagion](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2024%2Flabs%2Flab07%2Flab07_simple_contagion.ipynb)</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>? Problem Set 02</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>[Concurrency](#sec:concurrency)</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>Sexual networks, concurrency, and HIV</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>[Concurrency demo](https://shiny.demog.berkeley.edu/dennis/concurrency/)</t>
         </is>
       </c>
-    </row>
-    <row r="21">
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>[Lab 8: Mini-project prep](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2024%2Flabs%2Flab08%2Flab08_project_prep.ipynb)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="D22" t="inlineStr">
         <is>
           <t>Empirical studies of simple contagion</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>[Lab 8: Mini-project prep](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2024%2Flabs%2Flab08%2Flab08_project_prep.ipynb)</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>? Mini Project 04</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>[Social influence](#sec:socialinfluence)</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>Social influence, herding, and cascades</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>? Mini Project 04</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="D23" t="inlineStr">
+    </row>
+    <row r="24">
+      <c r="D24" t="inlineStr">
         <is>
           <t>Threshold models and complex contagion</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>[Dynamics: Complex contagion and social influence](#sec:complexcontagion)</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>Complex contagion on networks</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="D25" t="inlineStr">
+    <row r="26">
+      <c r="D26" t="inlineStr">
         <is>
           <t>Complex contagion on networks, cont. + Empirical studies of complex contagion</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>? Problem Set 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>[Cooperation](#sec:cooperation)</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Cooperation and networks</t>
         </is>
       </c>
     </row>
@@ -771,9 +766,14 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>[Cooperation](#sec:cooperation)</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>TBA - possible guest lecture</t>
+          <t>Cooperation and networks</t>
         </is>
       </c>
     </row>

--- a/demog180-syllabus/demog180.xlsx
+++ b/demog180-syllabus/demog180.xlsx
@@ -619,7 +619,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[Lab 6: Community detection](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2024%2Flabs%2Flab06%2Flab06_community_detection.ipynb)</t>
+          <t>[Lab 6 - Community Detection](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2025&amp;branch=main&amp;urlpath=lab%2Ftree%2Fdemog180-fa2025%2Flab%2Flab06%2Flab06_community_detection.ipynb)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">

--- a/demog180-syllabus/demog180.xlsx
+++ b/demog180-syllabus/demog180.xlsx
@@ -648,12 +648,13 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[SIR demo](https://shiny.demog.berkeley.edu/dennis/model-SIR/)</t>
+          <t>[SIR demo](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fshiny-id-demos&amp;branch=main&amp;urlpath=shiny%2Fshiny-id-demos%2FSIR%2F)
+[SIS demo](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fshiny-id-demos&amp;branch=main&amp;urlpath=shiny%2Fshiny-id-demos%2FSIS%2F)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[Lab 7: Simple contagion](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2024%2Flabs%2Flab07%2Flab07_simple_contagion.ipynb)</t>
+          <t>[Lab 7: Mini Project 3 Prep](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2025&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2025%2Flab%2Flab07%2Flab07_mp3_prep.ipynb)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">

--- a/demog180-syllabus/demog180.xlsx
+++ b/demog180-syllabus/demog180.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[Network SIR demo](https://shiny.demog.berkeley.edu/dennis/shiny-SimNetwork/); [Threshold infectiousness demo](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2024%2Flecture%2F20241029_sir_threshold_infectiousness%2Fsir_threshold_infectiousness.ipynb)</t>
+          <t>[Network SIR demo](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Falisonswu%2Fshiny-SimNetwork&amp;urlpath=shiny%2Fshiny-SimNetwork%2F); [Threshold infectiousness demo](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2025&amp;branch=main&amp;urlpath=lab%2Ftree%2Fdemog180-fa2025%2Flecture%2F20251030_sir_threshold_infectiousness%2Fsir_threshold_infectiousness.ipynb)</t>
         </is>
       </c>
     </row>

--- a/demog180-syllabus/demog180.xlsx
+++ b/demog180-syllabus/demog180.xlsx
@@ -622,11 +622,6 @@
           <t>[Lab 6 - Community Detection](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2025&amp;branch=main&amp;urlpath=lab%2Ftree%2Fdemog180-fa2025%2Flab%2Flab06%2Flab06_community_detection.ipynb)</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>? Mini Project 03</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="D18" t="inlineStr">
@@ -657,11 +652,6 @@
           <t>[Lab 7: Mini Project 3 Prep](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2025&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2025%2Flab%2Flab07%2Flab07_mp3_prep.ipynb)</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>? Problem Set 02</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="D20" t="inlineStr">
@@ -674,6 +664,11 @@
           <t>[Network SIR demo](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Falisonswu%2Fshiny-SimNetwork&amp;urlpath=shiny%2Fshiny-SimNetwork%2F); [Threshold infectiousness demo](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2025&amp;branch=main&amp;urlpath=lab%2Ftree%2Fdemog180-fa2025%2Flecture%2F20251030_sir_threshold_infectiousness%2Fsir_threshold_infectiousness.ipynb)</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>[Mini Project 03: Tudor network](https://docs.google.com/document/d/1XxtW5ZlPzRwHcbTHapKzeSZySq0axOVMnOGFtAnprEY/edit?usp=sharing)</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -710,40 +705,40 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NO CLASS (HOLIDAY)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>[Social influence](#sec:socialinfluence)</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>Social influence, herding, and cascades</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="D24" t="inlineStr">
+    <row r="25">
+      <c r="D25" t="inlineStr">
         <is>
           <t>Threshold models and complex contagion</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>[Dynamics: Complex contagion and social influence](#sec:complexcontagion)</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>Complex contagion on networks</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Complex contagion on networks, cont. + Empirical studies of complex contagion</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -767,21 +762,21 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Complex contagion on networks, cont. + Empirical studies of complex contagion</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>[Cooperation](#sec:cooperation)</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Cooperation and networks</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
       <c r="D30" t="inlineStr">
         <is>
-          <t>Wrap up</t>
+          <t>Cooperation and networks / Wrap Up</t>
         </is>
       </c>
     </row>

--- a/demog180-syllabus/demog180.xlsx
+++ b/demog180-syllabus/demog180.xlsx
@@ -683,12 +683,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[Concurrency demo](https://shiny.demog.berkeley.edu/dennis/concurrency/)</t>
+          <t>[Concurrency demo](https://datahub.berkeley.edu/user/feehan/shiny/shiny-id-demos/concurrency/)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[Lab 8: Mini-project prep](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2024&amp;branch=main&amp;urlpath=tree%2Fdemog180-fa2024%2Flabs%2Flab08%2Flab08_project_prep.ipynb)</t>
+          <t>[Lab 8: Simple contagion and centrality](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2025&amp;branch=main&amp;urlpath=lab%2Ftree%2Fdemog180-fa2025%2Flab%2Flab08%2Flab08_simple_contagion.ipynb)</t>
         </is>
       </c>
     </row>

--- a/demog180-syllabus/demog180.xlsx
+++ b/demog180-syllabus/demog180.xlsx
@@ -693,18 +693,28 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>[Social influence](#sec:socialinfluence)</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>Social influence, herding, and cascades</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>? Mini Project 04</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
           <t>Empirical studies of simple contagion</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>? Mini Project 04</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
       <c r="D23" t="inlineStr">
         <is>
           <t>NO CLASS (HOLIDAY)</t>
@@ -712,33 +722,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>[Social influence](#sec:socialinfluence)</t>
-        </is>
-      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Social influence, herding, and cascades</t>
+          <t>Threshold models and complex contagion</t>
         </is>
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>[Dynamics: Complex contagion and social influence](#sec:complexcontagion)</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Threshold models and complex contagion</t>
+          <t>Complex contagion on networks</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>[Dynamics: Complex contagion and social influence](#sec:complexcontagion)</t>
-        </is>
-      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Complex contagion on networks</t>
+          <t>Complex contagion on networks, cont.</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -762,21 +767,21 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>[Cooperation](#sec:cooperation)</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Complex contagion on networks, cont. + Empirical studies of complex contagion</t>
+          <t>Cooperation and networks</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>[Cooperation](#sec:cooperation)</t>
-        </is>
-      </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Cooperation and networks / Wrap Up</t>
+          <t>Empirical studies / Wrap up</t>
         </is>
       </c>
     </row>

--- a/demog180-syllabus/demog180.xlsx
+++ b/demog180-syllabus/demog180.xlsx
@@ -703,11 +703,6 @@
           <t>Social influence, herding, and cascades</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>? Mini Project 04</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="B23" t="inlineStr">
@@ -724,7 +719,12 @@
     <row r="24">
       <c r="D24" t="inlineStr">
         <is>
-          <t>Threshold models and complex contagion</t>
+          <t>Cascades cont.; Conditional Probability and Bayes's Rule; Threshold models</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>? Release problem set 02</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>? Problem Set 3</t>
+          <t>? Release Mini Project 04</t>
         </is>
       </c>
     </row>
@@ -763,6 +763,11 @@
       <c r="D28" t="inlineStr">
         <is>
           <t>THANKSGIVING (NO CLASS)</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>? Release Problem Set 3</t>
         </is>
       </c>
     </row>

--- a/demog180-syllabus/demog180.xlsx
+++ b/demog180-syllabus/demog180.xlsx
@@ -719,7 +719,7 @@
     <row r="24">
       <c r="D24" t="inlineStr">
         <is>
-          <t>Cascades cont.; Conditional Probability and Bayes's Rule; Threshold models</t>
+          <t>Cascades cont.; Conditional Probability and Bayes's Rule</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -736,14 +736,14 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Complex contagion on networks</t>
+          <t>Threshold models and complex contagion</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="D26" t="inlineStr">
         <is>
-          <t>Complex contagion on networks, cont.</t>
+          <t>Complex contagion cont...</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">

--- a/demog180-syllabus/demog180.xlsx
+++ b/demog180-syllabus/demog180.xlsx
@@ -719,7 +719,7 @@
     <row r="24">
       <c r="D24" t="inlineStr">
         <is>
-          <t>Cascades cont.; Conditional Probability and Bayes's Rule</t>
+          <t>Threshold models and complex contagion</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -736,14 +736,14 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Threshold models and complex contagion</t>
+          <t>Complex contagion cont...</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="D26" t="inlineStr">
         <is>
-          <t>Complex contagion cont...</t>
+          <t>Cooperation and networks</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Cooperation and networks</t>
+          <t>Empirical studies</t>
         </is>
       </c>
     </row>

--- a/demog180-syllabus/demog180.xlsx
+++ b/demog180-syllabus/demog180.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>? Release problem set 02</t>
+          <t>[Problem Set 02](https://docs.google.com/document/d/1r0BnZaxVWFrXICWL-BtwZxFFmnXm9q0t3mC32rBY-l0/edit?usp=sharing)</t>
         </is>
       </c>
     </row>

--- a/demog180-syllabus/demog180.xlsx
+++ b/demog180-syllabus/demog180.xlsx
@@ -741,9 +741,19 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>[Cooperation](#sec:cooperation)</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Cooperation and networks</t>
+          <t>Cooperation</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>[Axelrod tournament demo](https://datahub.berkeley.edu/hub/user-redirect/git-pull?repo=https%3A%2F%2Fgithub.com%2Fdfeehan%2Fdemog180-fa2025&amp;branch=main&amp;urlpath=lab%2Ftree%2Fdemog180-fa2025%2Flecture%2F20251119_cooperation%2Fipd_tournament.ipynb)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -772,11 +782,6 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>[Cooperation](#sec:cooperation)</t>
-        </is>
-      </c>
       <c r="D29" t="inlineStr">
         <is>
           <t>Empirical studies</t>

--- a/demog180-syllabus/demog180.xlsx
+++ b/demog180-syllabus/demog180.xlsx
@@ -758,7 +758,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>? Release Mini Project 04</t>
+          <t>[Mini Project 04](https://docs.google.com/document/d/1JNBDxEFIY2xI6GReG5q1HPNCDJHmpfV4amVGGr6_DPY/edit?usp=sharing)</t>
         </is>
       </c>
     </row>

--- a/demog180-syllabus/demog180.xlsx
+++ b/demog180-syllabus/demog180.xlsx
@@ -777,7 +777,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>? Release Problem Set 3</t>
+          <t>[Problem Set 03](https://docs.google.com/document/d/1Jkx4c3gG0KYbSamYfa2Cnqqx7qlyMP7mHkAdPvOg5co/edit?usp=sharing)</t>
         </is>
       </c>
     </row>
